--- a/RQ3/result/GA/GA_1.xlsx
+++ b/RQ3/result/GA/GA_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D4885-10E8-4E24-9C3B-13965B71BB5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633622D3-4C48-4375-91C5-861611DA9AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2670" windowWidth="29040" windowHeight="15840" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,18 +56,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -258,204 +246,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.coderanch.com/t/406112/java/Difference-Class-getConstructor-Class-getDeclaredConstructor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://javahungry.blogspot.com/2014/03/hashmap-vs-hashtable-difference-with-example-java-interview-questions.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/io/BufferedWriter.html</t>
-  </si>
-  <si>
-    <t>BufferedWriters will not copy data unnecessarily.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>register the given driver with the DriverManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you want to close or terminate your java application before this your only option is to use System.exit(int status) or Runtime.getRuntime().exit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://javarevisited.blogspot.com/2012/06/how-to-close-java-program-or-swing.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>java.lang.StringBuilder</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://alblue.bandlem.com/2016/04/jmh-stringbuffer-stringbuilder.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> there is an underlying trend for the StringBuilder to be at least as fast as its StringBuffer older cousin. In any case, implicit String concatenation (with +) creates a StringBuilder under the covers and it’s likely therefore that the StringBuilder will hit hot compilation method before StringBuffer in any case</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.java67.com/2012/08/difference-between-hashmap-and-LinkedHashMap-Java.html</t>
-  </si>
-  <si>
     <t>java.util.LinkedHashMap</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>In terms of Performance there is not much difference between </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>HashMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>LinkedHashMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> but yes LinkedHashMap has more memory foot print than HashMap to maintain doubly LinkedList which it uses to keep track of insertion order of keys. </t>
-    </r>
-  </si>
-  <si>
-    <t>retrieve the exception chained to this SQLException object by setNextException(SQLException ex)</t>
-  </si>
-  <si>
     <t>What's the difference between next() and nextLine() methods from Scanner class?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>next() method can read input till the space，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nextLine() method can read input till the line change </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.includehelp.com/java/difference-between-next-and-nextline-methods.aspx</t>
-  </si>
-  <si>
-    <t>read up to b.length bytes of data from this input stream into an array of bytes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://zetcode.com/lang/java/collections/</t>
-  </si>
-  <si>
-    <r>
-      <t>We go through the container using the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Iterator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t> object. The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>hasNext()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t> method checks if there are some elements left and the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>next()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t> method retrieves the next element in the iteration</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>obtain the current date-time from the system clock in the specified time-zone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Written by web search</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>search by  google</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -471,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,51 +310,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -580,18 +334,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,33 +352,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -939,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,18 +688,11 @@
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="80.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="141.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="81" style="3" customWidth="1"/>
-    <col min="16" max="16" width="117.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="45.875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.875" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="11" max="11" width="20.875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -975,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -998,26 +723,8 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1025,38 +732,31 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="6">
         <v>48</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1064,40 +764,31 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="7">
         <v>211</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1105,46 +796,31 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="6">
         <v>285</v>
       </c>
-      <c r="K4" s="5">
-        <v>0.2590277777777778</v>
-      </c>
-      <c r="L4" s="13">
-        <v>373</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1152,40 +828,31 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="7">
         <v>185</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1193,38 +860,31 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="6">
         <v>54</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1232,40 +892,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="9">
+        <v>48</v>
+      </c>
+      <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="8">
         <v>126</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1273,46 +924,31 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="6">
         <v>192</v>
       </c>
-      <c r="K8" s="5">
-        <v>0.24583333333333335</v>
-      </c>
-      <c r="L8" s="13">
-        <v>354</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1320,40 +956,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="9">
+        <v>48</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="8">
         <v>240</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1361,38 +988,31 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="6">
         <v>57</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1400,40 +1020,31 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="9">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="8">
         <v>309</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1441,38 +1052,31 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="6">
         <v>52</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1480,52 +1084,33 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="I13" s="5">
         <v>2</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="8">
         <v>97</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" xr:uid="{5B586DA0-C9F0-4FD4-A058-647B22B795A5}"/>
-    <hyperlink ref="O4" r:id="rId2" xr:uid="{D1CF0C2F-06C0-4F33-BB55-A0E1674D4FBF}"/>
-    <hyperlink ref="P5" r:id="rId3" display="https://docs.oracle.com/javase/8/docs/api/java/io/BufferedWriter.html" xr:uid="{39D25EA4-DDB7-484F-84E7-66F7C3F00D55}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{E3540FC4-757F-4ECB-8280-AFD77E956F08}"/>
-    <hyperlink ref="O7" r:id="rId5" xr:uid="{DBC8D272-7F10-408F-A99D-7D922548EA4B}"/>
-    <hyperlink ref="O8" r:id="rId6" xr:uid="{2B6A779A-1037-48D2-B227-9088B4D9245D}"/>
-    <hyperlink ref="O11" r:id="rId7" xr:uid="{186AF4A0-EE86-436C-8BD6-5360C21717C8}"/>
-    <hyperlink ref="O13" r:id="rId8" xr:uid="{7C11FC2C-80CD-4A2B-BEFB-D5D7093AABE6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GA/GA_1.xlsx
+++ b/RQ3/result/GA/GA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633622D3-4C48-4375-91C5-861611DA9AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FFAAF6-F8B5-4C11-80E8-F4F3E90286D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2670" windowWidth="29040" windowHeight="15840" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -263,6 +259,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +674,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -732,22 +732,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -764,22 +764,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -796,22 +796,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -828,22 +828,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -860,22 +860,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -892,22 +892,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -924,22 +924,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -956,22 +956,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -988,22 +988,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1020,22 +1020,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1052,22 +1052,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1084,22 +1084,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
